--- a/docs/mcode-r4/onco-core-PrimaryCancerCondition-extension.xlsx
+++ b/docs/mcode-r4/onco-core-PrimaryCancerCondition-extension.xlsx
@@ -137,7 +137,7 @@
     <t>PrimaryCancerCondition</t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body, abnormal cells that divide without control and can invade nearby tissues.</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/docs/mcode-r4/onco-core-PrimaryCancerCondition-extension.xlsx
+++ b/docs/mcode-r4/onco-core-PrimaryCancerCondition-extension.xlsx
@@ -137,7 +137,7 @@
     <t>PrimaryCancerCondition</t>
   </si>
   <si>
-    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor).</t>
+    <t>Records the history of the primary cancer condition, the original or first tumor in the body (ref https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor). Cancers of uncertain origin or behavior should be documented as primary.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
